--- a/cyber.xlsx
+++ b/cyber.xlsx
@@ -12,7 +12,6 @@
     <sheet name="F" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,23 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>va</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,103 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e2e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,46 +377,47 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -533,64 +426,64 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>125</v>
       </c>
       <c r="C2">
-        <v>3000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>62.5</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>62.5</v>
       </c>
       <c r="C4">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>62.5</v>
       </c>
       <c r="C5">
-        <v>4500</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -605,108 +498,108 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
